--- a/resume01.xlsx
+++ b/resume01.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>사진</t>
   </si>
@@ -33,22 +33,22 @@
     <t>생년월일</t>
   </si>
   <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
+    <t>suzi_profile.png</t>
+  </si>
+  <si>
+    <t>aaaaaaaa</t>
+  </si>
+  <si>
+    <t>bbbbbb</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>cccccccccc</t>
+  </si>
+  <si>
+    <t>dddddddddddd</t>
   </si>
   <si>
     <t>졸업연도</t>
@@ -63,6 +63,15 @@
     <t>졸업여부</t>
   </si>
   <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>dddd</t>
+  </si>
+  <si>
+    <t>ccccc</t>
+  </si>
+  <si>
     <t>근무기간</t>
   </si>
   <si>
@@ -75,12 +84,19 @@
     <t>근속년수</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aaaaaaa
-bbbbbbb
-ccccccccc
+    <t>2222</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>bbbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaaaaaaaaaaaaaaaaaaaaa
+aaaaaaaaaaaaaaaaaa
+aaaaaaaaaaaaaa
+aaaaaaaaaa
 </t>
   </si>
 </sst>
@@ -100,14 +116,17 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,20 +164,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2667648" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.49609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="4.40234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="5.515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.49609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.97265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.33984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.90625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -181,7 +243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="40.0" customHeight="true">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -217,48 +279,49 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22.0</v>
+        <v>2222.0</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s" s="3">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>22.0</v>
+        <v>222222.0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -270,12 +333,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.41015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.22265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/resume01.xlsx
+++ b/resume01.xlsx
@@ -36,19 +36,19 @@
     <t>suzi_profile.png</t>
   </si>
   <si>
-    <t>aaaaaaaa</t>
-  </si>
-  <si>
-    <t>bbbbbb</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>cccccccccc</t>
-  </si>
-  <si>
-    <t>dddddddddddd</t>
+    <t>suzi</t>
+  </si>
+  <si>
+    <t>jjang2a@naver.com</t>
+  </si>
+  <si>
+    <t>seoul</t>
+  </si>
+  <si>
+    <t>101-111-2222</t>
+  </si>
+  <si>
+    <t>1010-111-1111</t>
   </si>
   <si>
     <t>졸업연도</t>
@@ -63,13 +63,13 @@
     <t>졸업여부</t>
   </si>
   <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>dddd</t>
-  </si>
-  <si>
-    <t>ccccc</t>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>cccc</t>
   </si>
   <si>
     <t>근무기간</t>
@@ -84,7 +84,7 @@
     <t>근속년수</t>
   </si>
   <si>
-    <t>2222</t>
+    <t>222</t>
   </si>
   <si>
     <t>aaaa</t>
@@ -93,10 +93,10 @@
     <t>bbbb</t>
   </si>
   <si>
-    <t xml:space="preserve">aaaaaaaaaaaaaaaaaaaaaa
-aaaaaaaaaaaaaaaaaa
-aaaaaaaaaaaaaa
-aaaaaaaaaa
+    <t xml:space="preserve">aaaaaaaaaaaa
+bbbbbbbbbb
+cccccccc
+dddddddddd
 </t>
   </si>
 </sst>
@@ -195,7 +195,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2667648" cy="508000"/>
+          <a:ext cx="2667648" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -216,11 +216,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.46875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.97265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="10.33984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.90625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.4296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.9375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="5.8125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.53515625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.6484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -243,7 +243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="40.0" customHeight="true">
+    <row r="2" ht="60.0" customHeight="true">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -279,7 +279,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2222.0</v>
+        <v>2828.0</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -316,7 +316,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>222222.0</v>
+        <v>22222.0</v>
       </c>
     </row>
   </sheetData>
@@ -333,7 +333,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.22265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.68359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
